--- a/app-RRHH/file/list_trabajadores.xlsx
+++ b/app-RRHH/file/list_trabajadores.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -64,6 +64,13 @@
       <charset val="1"/>
       <family val="1"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="CalibriCalibri"/>
+      <charset val="1"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
     </font>
@@ -158,7 +165,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -223,6 +230,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -583,7 +593,7 @@
           <t>ARTURO EVASIO SÁNCHEZ  MARTÍNEZ</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="27" t="n">
         <v>63121215640</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -618,7 +628,7 @@
           <t>MARITZA MOYA CUELLAR</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="27" t="n">
         <v>65012826774</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -653,7 +663,7 @@
           <t>ALEXANDER CARDOSA SALAZAR</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="27" t="n">
         <v>73082511608</v>
       </c>
       <c r="E7" t="inlineStr">
@@ -688,7 +698,7 @@
           <t>ONEDIS BASULTO HERNÁNDEZ</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="27" t="n">
         <v>92082440121</v>
       </c>
       <c r="E8" t="inlineStr">
@@ -723,7 +733,7 @@
           <t>DILENIA HIDALGO SUÁREZ</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="27" t="n">
         <v>81102406997</v>
       </c>
       <c r="E9" t="inlineStr">
@@ -758,7 +768,7 @@
           <t>ERIK LÁZARO PRENDES LAGO</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="27" t="n">
         <v>83070627289</v>
       </c>
       <c r="E10" t="inlineStr">
@@ -793,7 +803,7 @@
           <t>JANETT ADRIANA VÁZQUEZ  FANEGO</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="27" t="n">
         <v>65111919779</v>
       </c>
       <c r="E11" t="inlineStr">
@@ -828,7 +838,7 @@
           <t>ARIANNA PÉREZ  LLANO</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="27" t="n">
         <v>92090230750</v>
       </c>
       <c r="E12" t="inlineStr">
@@ -863,7 +873,7 @@
           <t>JESSICA DE LAS MERCEDES DEL PESO ZAMBRANO</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="27" t="n">
         <v>91081528498</v>
       </c>
       <c r="E13" t="inlineStr">
@@ -898,7 +908,7 @@
           <t>ADRIANA VALERA CORREA</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="27" t="n">
         <v>96040706757</v>
       </c>
       <c r="E14" t="inlineStr">
@@ -933,7 +943,7 @@
           <t>EDGAR SÁNCHEZ  OLIVA</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="27" t="n">
         <v>80091007502</v>
       </c>
       <c r="E15" t="inlineStr">
@@ -968,7 +978,7 @@
           <t>CLAUDIA LINARES  SOSA</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="27" t="n">
         <v>85022805459</v>
       </c>
       <c r="E16" t="inlineStr">
@@ -1003,7 +1013,7 @@
           <t>JOSE FERMIN CORTIÑA PIÑERA</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="27" t="n">
         <v>84040104860</v>
       </c>
       <c r="E17" t="inlineStr">
@@ -1038,7 +1048,7 @@
           <t>LISANDRA HERNANDEZ CREACH</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="27" t="n">
         <v>87092406817</v>
       </c>
       <c r="E18" t="inlineStr">
@@ -1073,7 +1083,7 @@
           <t>MAIYELIN  VERA VALDÉS</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="27" t="n">
         <v>99011007555</v>
       </c>
       <c r="E19" t="inlineStr">
@@ -1108,7 +1118,7 @@
           <t>MARUCHA SERRET ROJAS</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="27" t="n">
         <v>81100223416</v>
       </c>
       <c r="E20" t="inlineStr">
@@ -1143,7 +1153,7 @@
           <t>ISIS IVETTE ESCALONA LEYVA</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="27" t="n">
         <v>83102119051</v>
       </c>
       <c r="E21" t="inlineStr">
@@ -1178,7 +1188,7 @@
           <t>SUILEN REYES  SUÁREZ</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="27" t="n">
         <v>82080307612</v>
       </c>
       <c r="E22" t="inlineStr">
@@ -1213,7 +1223,7 @@
           <t>DANIA BERETERVIDE  DOPICO</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="27" t="n">
         <v>64061801112</v>
       </c>
       <c r="E23" t="inlineStr">
@@ -1248,7 +1258,7 @@
           <t>ABEL PRIETO CASQUERO</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="27" t="n">
         <v>85072601148</v>
       </c>
       <c r="E24" t="inlineStr">
@@ -1283,7 +1293,7 @@
           <t>JOSE LUIS CATURLA TERRY</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="27" t="n">
         <v>65051504181</v>
       </c>
       <c r="E25" t="inlineStr">
@@ -1318,7 +1328,7 @@
           <t>TERESA DE LA CARIDAD GARCÍA  BOLAÑOS</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="27" t="n">
         <v>64030112417</v>
       </c>
       <c r="E26" t="inlineStr">
@@ -1353,7 +1363,7 @@
           <t>ADA DANIA GONZALEZ GONZALEZ</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="27" t="n">
         <v>70092002476</v>
       </c>
       <c r="E27" t="inlineStr">
@@ -1388,7 +1398,7 @@
           <t>ERNESTO GUERRA MATA</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="27" t="n">
         <v>98111206907</v>
       </c>
       <c r="E28" t="inlineStr">
@@ -1423,7 +1433,7 @@
           <t>CARLOS  DIAZ ORDAZ</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="27" t="n">
         <v>63122918283</v>
       </c>
       <c r="E29" t="inlineStr">
@@ -1458,7 +1468,7 @@
           <t>LEONARDO PEREZ RAMIREZ</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="27" t="n">
         <v>69062916800</v>
       </c>
       <c r="E30" t="inlineStr">
@@ -1493,7 +1503,7 @@
           <t>RAÚL PAVÓN  FUENTES</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="27" t="n">
         <v>65073102769</v>
       </c>
       <c r="E31" t="inlineStr">
@@ -1528,7 +1538,7 @@
           <t>YAILIN URRUTIA POMIER</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="27" t="n">
         <v>87030909778</v>
       </c>
       <c r="E32" t="inlineStr">
@@ -1563,7 +1573,7 @@
           <t>MARTHA BRENDA DÍAZ DELGADO</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="27" t="n">
         <v>90050622896</v>
       </c>
       <c r="E33" t="inlineStr">
@@ -1598,7 +1608,7 @@
           <t>ALIUSKA LOURDES SANCHEZ HERNANDEZ</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="27" t="n">
         <v>86103105175</v>
       </c>
       <c r="E34" t="inlineStr">
@@ -1633,7 +1643,7 @@
           <t>DANAY GUZMÁN BORGES</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="27" t="n">
         <v>91071224652</v>
       </c>
       <c r="E35" t="inlineStr">
@@ -1668,7 +1678,7 @@
           <t>FRANCISCO JAVIER CASTELLÓN  BARTROLI</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="27" t="n">
         <v>66042814748</v>
       </c>
       <c r="E36" t="inlineStr">
@@ -1703,7 +1713,7 @@
           <t>EDUARDO  FORTE MARQUEZ</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="27" t="n">
         <v>90050928909</v>
       </c>
       <c r="E37" t="inlineStr">
@@ -1738,7 +1748,7 @@
           <t>DAUNIER HERNÁNDEZ  TRUJILLO</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="27" t="n">
         <v>79120206145</v>
       </c>
       <c r="E38" t="inlineStr">
@@ -1773,7 +1783,7 @@
           <t>RANNIEL RIVERO SEVILA</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="27" t="n">
         <v>84072523147</v>
       </c>
       <c r="E39" t="inlineStr">
@@ -1808,7 +1818,7 @@
           <t>ALEJANDRO  RAMÍREZ COMESAÑAS</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="27" t="n">
         <v>96093008988</v>
       </c>
       <c r="E40" t="inlineStr">
@@ -1843,7 +1853,7 @@
           <t>YAMILA JO  MARRERO</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="27" t="n">
         <v>71071214350</v>
       </c>
       <c r="E41" t="inlineStr">
@@ -1878,7 +1888,7 @@
           <t>HASLEMER SOTOLONGO  CUZA</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="27" t="n">
         <v>74121822567</v>
       </c>
       <c r="E42" t="inlineStr">
@@ -1913,7 +1923,7 @@
           <t>REMBERTO GONZÁLEZ MORALES</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="27" t="n">
         <v>69073008505</v>
       </c>
       <c r="E43" t="inlineStr">
@@ -1948,7 +1958,7 @@
           <t>ROGER ONDARSE ROJAS</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="27" t="n">
         <v>72030707262</v>
       </c>
       <c r="E44" t="inlineStr">
@@ -1983,7 +1993,7 @@
           <t>ROBERTO PADILLA  COLAO</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="27" t="n">
         <v>62021500702</v>
       </c>
       <c r="E45" t="inlineStr">
@@ -2018,7 +2028,7 @@
           <t>ROLANDO RODRIGUEZ GONZALEZ</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="27" t="n">
         <v>79042502401</v>
       </c>
       <c r="E46" t="inlineStr">
@@ -2053,7 +2063,7 @@
           <t>ERNESTO SÁNCHEZ  COLUMBIÉ</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="27" t="n">
         <v>91102621066</v>
       </c>
       <c r="E47" t="inlineStr">
@@ -2088,7 +2098,7 @@
           <t>ALEJANDRO MONTAÑA  RIVERA</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="27" t="n">
         <v>68041802704</v>
       </c>
       <c r="E48" t="inlineStr">
@@ -2123,7 +2133,7 @@
           <t>HERMINIO LAGARZA  ACOSTA</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="27" t="n">
         <v>63010531600</v>
       </c>
       <c r="E49" t="inlineStr">
@@ -2158,7 +2168,7 @@
           <t>LÁZARO REINIER RODRÍGUEZ RAVELO</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="27" t="n">
         <v>91081728103</v>
       </c>
       <c r="E50" t="inlineStr">
@@ -2193,7 +2203,7 @@
           <t>ALEXEI BERNIS VILTRES</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="27" t="n">
         <v>76092624989</v>
       </c>
       <c r="E51" t="inlineStr">
@@ -2228,7 +2238,7 @@
           <t>MICHEL BARZAGA URQUIZA</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="27" t="n">
         <v>95102746105</v>
       </c>
       <c r="E52" t="inlineStr">
@@ -2263,7 +2273,7 @@
           <t>ABEL ERNESTO URGELLES GARRIDO</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="27" t="n">
         <v>64042014641</v>
       </c>
       <c r="E53" t="inlineStr">
@@ -2298,7 +2308,7 @@
           <t>OMAR VEGA  SIERRA</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="27" t="n">
         <v>61081602442</v>
       </c>
       <c r="E54" t="inlineStr">
@@ -2333,7 +2343,7 @@
           <t>ARNALDO BLANCO  CARDOSO</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="27" t="n">
         <v>62061831389</v>
       </c>
       <c r="E55" t="inlineStr">
@@ -2368,7 +2378,7 @@
           <t>ROBERTO AGUIRREZABAL  HOPUY</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="27" t="n">
         <v>67011332047</v>
       </c>
       <c r="E56" t="inlineStr">
@@ -2403,7 +2413,7 @@
           <t>LIOSBEL VALDÉS  HERRERA</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="27" t="n">
         <v>79080302984</v>
       </c>
       <c r="E57" t="inlineStr">
@@ -2438,7 +2448,7 @@
           <t>JORGE LUIS MARTÍNEZ  GONZÁLEZ</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="27" t="n">
         <v>61121029863</v>
       </c>
       <c r="E58" t="inlineStr">
@@ -2473,7 +2483,7 @@
           <t>REGINO MARRERO  TAMAYO</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="27" t="n">
         <v>88082434142</v>
       </c>
       <c r="E59" t="inlineStr">
@@ -2508,7 +2518,7 @@
           <t>VLADIMIR  CLARO  NIKOLAIEVA</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="27" t="n">
         <v>74120502342</v>
       </c>
       <c r="E60" t="inlineStr">
@@ -2543,7 +2553,7 @@
           <t>MANUEL GARCÍA  GUTIERREZ</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="27" t="n">
         <v>77012704342</v>
       </c>
       <c r="E61" t="inlineStr">
@@ -2578,7 +2588,7 @@
           <t>ARMANDO ÁLVAREZ  FERNÁNDEZ</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" s="27" t="n">
         <v>77042205726</v>
       </c>
       <c r="E62" t="inlineStr">
@@ -2613,7 +2623,7 @@
           <t>JORGE PABLO RODRÍGUEZ  SÁNCHEZ</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="27" t="n">
         <v>65090924603</v>
       </c>
       <c r="E63" t="inlineStr">
@@ -2648,7 +2658,7 @@
           <t>JORJAN OLIVERA  MONTANO</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="27" t="n">
         <v>80022600820</v>
       </c>
       <c r="E64" t="inlineStr">
@@ -2683,7 +2693,7 @@
           <t>LUIS ALBERTO PITA BODAÑO</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" s="27" t="n">
         <v>66091013022</v>
       </c>
       <c r="E65" t="inlineStr">
@@ -2718,7 +2728,7 @@
           <t>OSMAR MANUEL VAILLANT QUEZADA</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="27" t="n">
         <v>91111948221</v>
       </c>
       <c r="E66" t="inlineStr">
@@ -2753,7 +2763,7 @@
           <t>YANSEL GONZALEZ VARELA</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="27" t="n">
         <v>89102223545</v>
       </c>
       <c r="E67" t="inlineStr">
@@ -2788,7 +2798,7 @@
           <t>DANIEL SANTIAGO RAMOS VALLS</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="27" t="n">
         <v>64092729644</v>
       </c>
       <c r="E68" t="inlineStr">
@@ -2823,7 +2833,7 @@
           <t>BENIGNO GONZALEZ ORTIZ</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" s="27" t="n">
         <v>66042411566</v>
       </c>
       <c r="E69" t="inlineStr">
@@ -2858,7 +2868,7 @@
           <t>ARIEL PEÑA  NAPOLES</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="27" t="n">
         <v>89020220382</v>
       </c>
       <c r="E70" t="inlineStr">
@@ -2893,7 +2903,7 @@
           <t>DIMAS MARCOS IBALBIA PAIROL</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" s="27" t="n">
         <v>65032530424</v>
       </c>
       <c r="E71" t="inlineStr">
@@ -2928,7 +2938,7 @@
           <t>EMIGDIO JIMÉNEZ PEÑA</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" s="27" t="n">
         <v>84070620820</v>
       </c>
       <c r="E72" t="inlineStr">
@@ -2963,7 +2973,7 @@
           <t>JUAN ALEXANDER  ALBUQUERQUE HERRERA</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" s="27" t="n">
         <v>74103102985</v>
       </c>
       <c r="E73" t="inlineStr">
@@ -2998,7 +3008,7 @@
           <t>NOEL FERNÁNDEZ VARELA</t>
         </is>
       </c>
-      <c r="D74" t="n">
+      <c r="D74" s="27" t="n">
         <v>91071528909</v>
       </c>
       <c r="E74" t="inlineStr">
@@ -3033,7 +3043,7 @@
           <t>OSMEL LEONARDO ZAMORA PEREZ</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="27" t="n">
         <v>87010707708</v>
       </c>
       <c r="E75" t="inlineStr">
@@ -3068,7 +3078,7 @@
           <t>ALFREDO VAGNER PEÑA SILVA</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="27" t="n">
         <v>60052015562</v>
       </c>
       <c r="E76" t="inlineStr">
@@ -3103,7 +3113,7 @@
           <t>JUAN CARLOS YAMACHO SILVA</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="27" t="n">
         <v>65081300101</v>
       </c>
       <c r="E77" t="inlineStr">
@@ -3138,7 +3148,7 @@
           <t>YEAN MARC MORENO  CABRERA</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="27" t="n">
         <v>71110614360</v>
       </c>
       <c r="E78" t="inlineStr">
@@ -3173,7 +3183,7 @@
           <t>RAMÓN OQUENDO  FADRAGA</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="27" t="n">
         <v>64092000765</v>
       </c>
       <c r="E79" t="inlineStr">
@@ -3208,7 +3218,7 @@
           <t>ISRAEL MORA  BELTRÁN</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="27" t="n">
         <v>77020406607</v>
       </c>
       <c r="E80" t="inlineStr">
@@ -3243,7 +3253,7 @@
           <t>IVAN  CRUZ GARCIA</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="27" t="n">
         <v>87010910026</v>
       </c>
       <c r="E81" t="inlineStr">
@@ -3278,7 +3288,7 @@
           <t>EDDY RODRIGUEZ RODRIGUEZ</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" s="27" t="n">
         <v>75082302968</v>
       </c>
       <c r="E82" t="inlineStr">
@@ -3313,7 +3323,7 @@
           <t>ANGEL DANIEL PASCUAL  VALDÉS</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" s="27" t="n">
         <v>98011606643</v>
       </c>
       <c r="E83" t="inlineStr">
@@ -3348,7 +3358,7 @@
           <t>ALEJANDRO BATISTA  CRUZ</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="27" t="n">
         <v>68070316984</v>
       </c>
       <c r="E84" t="inlineStr">
@@ -3383,7 +3393,7 @@
           <t>DANIEL ALEJANDRO JIMENEZ BETANCOURT</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="27" t="n">
         <v>1060566285</v>
       </c>
       <c r="E85" t="inlineStr">
@@ -3418,7 +3428,7 @@
           <t>EDDY RODRÍGUEZ CARBALLEDO</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="27" t="n">
         <v>1111266627</v>
       </c>
       <c r="E86" t="inlineStr">
@@ -3453,7 +3463,7 @@
           <t>HENRY ROLANDO ESTEVEZ  CALDERÓN</t>
         </is>
       </c>
-      <c r="D87" t="n">
+      <c r="D87" s="27" t="n">
         <v>96083109986</v>
       </c>
       <c r="E87" t="inlineStr">
@@ -3488,7 +3498,7 @@
           <t>MAIQUEL CONCEPCION PADILLA</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="D88" s="27" t="n">
         <v>95012928203</v>
       </c>
       <c r="E88" t="inlineStr">
@@ -3523,7 +3533,7 @@
           <t>REINIER ESTRADA VIVES</t>
         </is>
       </c>
-      <c r="D89" t="n">
+      <c r="D89" s="27" t="n">
         <v>98103122741</v>
       </c>
       <c r="E89" t="inlineStr">
@@ -3558,7 +3568,7 @@
           <t>ALDO  OLIVEROS  CRUZ</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="27" t="n">
         <v>90031247962</v>
       </c>
       <c r="E90" t="inlineStr">
@@ -3593,7 +3603,7 @@
           <t>JOAQUIN MODESTO PERDOMO PEREZ</t>
         </is>
       </c>
-      <c r="D91" t="n">
+      <c r="D91" s="27" t="n">
         <v>95100930889</v>
       </c>
       <c r="E91" t="inlineStr">
@@ -3628,7 +3638,7 @@
           <t>JUAN DE LEÓN  CARMENATY</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" s="27" t="n">
         <v>50062408808</v>
       </c>
       <c r="E92" t="inlineStr">
@@ -3663,7 +3673,7 @@
           <t>IBRAHIN FERRER  DE LA ROSA</t>
         </is>
       </c>
-      <c r="D93" t="n">
+      <c r="D93" s="27" t="n">
         <v>59081110669</v>
       </c>
       <c r="E93" t="inlineStr">
@@ -3698,7 +3708,7 @@
           <t>WILLIAN RODRÍGUEZ VELIZ</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="27" t="n">
         <v>76112702407</v>
       </c>
       <c r="E94" t="inlineStr">
@@ -3733,7 +3743,7 @@
           <t>MIGUEL VALLE  ÁLVAREZ</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="27" t="n">
         <v>68092903503</v>
       </c>
       <c r="E95" t="inlineStr">
@@ -3768,7 +3778,7 @@
           <t>LAZARO YORDAN VALDES BRUNET</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="27" t="n">
         <v>97040407386</v>
       </c>
       <c r="E96" t="inlineStr">
@@ -3803,7 +3813,7 @@
           <t>CARLOS WILFREDO AROZARENA CORTES</t>
         </is>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" s="27" t="n">
         <v>2101267468</v>
       </c>
       <c r="E97" t="inlineStr">
@@ -3838,7 +3848,7 @@
           <t>ARMANDO LOPEZ GUERRA</t>
         </is>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" s="27" t="n">
         <v>98120807485</v>
       </c>
       <c r="E98" t="inlineStr">
@@ -3873,7 +3883,7 @@
           <t>JEIBEL ALONSO SARDIÑAS</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="27" t="n">
         <v>2031967364</v>
       </c>
       <c r="E99" t="inlineStr">
@@ -3908,7 +3918,7 @@
           <t>KEVIN SORRELL GARCIA</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" s="27" t="n">
         <v>1072468003</v>
       </c>
       <c r="E100" t="inlineStr">
@@ -3943,7 +3953,7 @@
           <t>EDUARDO CALDERON FUENTES</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="27" t="n">
         <v>94013034202</v>
       </c>
       <c r="E101" t="inlineStr">
@@ -3978,7 +3988,7 @@
           <t>JUAN ANTONIO HERNANDEZ RAMIREZ</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="27" t="n">
         <v>94123126109</v>
       </c>
       <c r="E102" t="inlineStr">
@@ -4013,7 +4023,7 @@
           <t>DANIEL MUÑOZ GONZÁLEZ</t>
         </is>
       </c>
-      <c r="D103" t="n">
+      <c r="D103" s="27" t="n">
         <v>86080806688</v>
       </c>
       <c r="E103" t="inlineStr">
@@ -4048,7 +4058,7 @@
           <t>ROBERTO FRANCISCO JARDÓN  PRENDES</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="27" t="n">
         <v>70060300806</v>
       </c>
       <c r="E104" t="inlineStr">
@@ -4083,7 +4093,7 @@
           <t>YOESLAN  VALDES SANCHEZ</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="27" t="n">
         <v>88031608447</v>
       </c>
       <c r="E105" t="inlineStr">
@@ -4118,7 +4128,7 @@
           <t>YURY ROBERTO CONYEDO ALEJO</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="27" t="n">
         <v>74050822569</v>
       </c>
       <c r="E106" t="inlineStr">
@@ -4153,7 +4163,7 @@
           <t>LUIS BULNES  CARRILLO</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" s="27" t="n">
         <v>60082001103</v>
       </c>
       <c r="E107" t="inlineStr">
@@ -4188,7 +4198,7 @@
           <t>REINALDO RAMOS  GÓMEZ</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" s="27" t="n">
         <v>69062900029</v>
       </c>
       <c r="E108" t="inlineStr">
@@ -4223,7 +4233,7 @@
           <t>YANET DEVESA  SÁNCHEZ</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" s="27" t="n">
         <v>87112634897</v>
       </c>
       <c r="E109" t="inlineStr">
@@ -4258,7 +4268,7 @@
           <t>LUIS DANIEL GONZÁLEZ  VIERA</t>
         </is>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" s="27" t="n">
         <v>96101410001</v>
       </c>
       <c r="E110" t="inlineStr">
@@ -4293,7 +4303,7 @@
           <t>JUAN CARLOS TRELLES  CABRERA</t>
         </is>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" s="27" t="n">
         <v>66053004348</v>
       </c>
       <c r="E111" t="inlineStr">
@@ -4328,7 +4338,7 @@
           <t>MALKIEL  MOJENA HERNANDEZ</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="27" t="n">
         <v>99092006922</v>
       </c>
       <c r="E112" t="inlineStr">
@@ -4363,7 +4373,7 @@
           <t>YASSER BOTELLO VIDAL</t>
         </is>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" s="27" t="n">
         <v>93060633862</v>
       </c>
       <c r="E113" t="inlineStr">
@@ -4398,7 +4408,7 @@
           <t>YASER RENE LOPEZ BLANCO</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" s="27" t="n">
         <v>6070566486</v>
       </c>
       <c r="E114" t="inlineStr">
@@ -4433,7 +4443,7 @@
           <t>ANTUAN UMPIERRE ALVAREZ</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="27" t="n">
         <v>70010303985</v>
       </c>
       <c r="E115" t="inlineStr">
@@ -4468,7 +4478,7 @@
           <t>RICARDO DANIEL PÉREZ  ALLISON</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="27" t="n">
         <v>68071210806</v>
       </c>
       <c r="E116" t="inlineStr">
@@ -4503,7 +4513,7 @@
           <t>LEONARDO RODRÍGUEZ  MEDINA</t>
         </is>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" s="27" t="n">
         <v>82102206906</v>
       </c>
       <c r="E117" t="inlineStr">
@@ -4538,7 +4548,7 @@
           <t>JULIO ALFREDO WONG SERRA</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" s="27" t="n">
         <v>97013106925</v>
       </c>
       <c r="E118" t="inlineStr">
@@ -4573,7 +4583,7 @@
           <t>JORGE LUIS LÓPEZ  ORTA</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="27" t="n">
         <v>69092100201</v>
       </c>
       <c r="E119" t="inlineStr">
@@ -4608,7 +4618,7 @@
           <t>ERNESTO ALARCÓN  ESPINOSA</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="27" t="n">
         <v>67060931181</v>
       </c>
       <c r="E120" t="inlineStr">
@@ -4643,7 +4653,7 @@
           <t>HUMBERTO PABLO CABEZAS   ALONSO</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="27" t="n">
         <v>65061729741</v>
       </c>
       <c r="E121" t="inlineStr">
@@ -4678,7 +4688,7 @@
           <t>YORGENIS RAMÍREZ  VELÁZQUEZ</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="27" t="n">
         <v>74092311300</v>
       </c>
       <c r="E122" t="inlineStr">
@@ -4713,7 +4723,7 @@
           <t>RAIDEL RAMOS ARREBATO</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="27" t="n">
         <v>91122907042</v>
       </c>
       <c r="E123" t="inlineStr">
@@ -4748,7 +4758,7 @@
           <t>ERANDIS  ALVAREZ GARCIA</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="27" t="n">
         <v>96100708980</v>
       </c>
       <c r="E124" t="inlineStr">
@@ -4783,7 +4793,7 @@
           <t>YANOSKY ESCAÑO  RODRÍGUEZ</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="27" t="n">
         <v>78111703042</v>
       </c>
       <c r="E125" t="inlineStr">
@@ -4818,7 +4828,7 @@
           <t>VALIA NOGUERA FIGUEROA</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="27" t="n">
         <v>75082000671</v>
       </c>
       <c r="E126" t="inlineStr">
@@ -4853,7 +4863,7 @@
           <t>ANA JULIA GONZÁLEZ GÓMEZ</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="27" t="n">
         <v>64060502016</v>
       </c>
       <c r="E127" t="inlineStr">
@@ -4888,7 +4898,7 @@
           <t>ESTEBAN DAVID SÁNCHEZ  NOVO</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="27" t="n">
         <v>63122631988</v>
       </c>
       <c r="E128" t="inlineStr">
@@ -4923,7 +4933,7 @@
           <t>PABLO PÉREZ  TORRES</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" s="27" t="n">
         <v>70102227647</v>
       </c>
       <c r="E129" t="inlineStr">
@@ -4958,7 +4968,7 @@
           <t>IDARMIS RIVERA  LEÓN</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="27" t="n">
         <v>67103030292</v>
       </c>
       <c r="E130" t="inlineStr">
@@ -4993,7 +5003,7 @@
           <t>ARMINDA JULIA ARIAS  HERNÁNDEZ</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="27" t="n">
         <v>43072708657</v>
       </c>
       <c r="E131" t="inlineStr">
@@ -5028,7 +5038,7 @@
           <t>RODOBALDO DÍAZ  ARTEAGA</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="27" t="n">
         <v>57020723948</v>
       </c>
       <c r="E132" t="inlineStr">
@@ -5063,7 +5073,7 @@
           <t>ORLANDO LLANES  MESA</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="27" t="n">
         <v>67091002169</v>
       </c>
       <c r="E133" t="inlineStr">
@@ -5098,7 +5108,7 @@
           <t>JESUS BARCELONA  ALAMBARES</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" s="27" t="n">
         <v>71102614788</v>
       </c>
       <c r="E134" t="inlineStr">
@@ -5133,7 +5143,7 @@
           <t>EDUARDO GONZÁLEZ  FERNÁNDEZ</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" s="27" t="n">
         <v>88071806360</v>
       </c>
       <c r="E135" t="inlineStr">
@@ -5168,7 +5178,7 @@
           <t>YUNIERT CUTIÑO  GRIÑAN</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="27" t="n">
         <v>82081709443</v>
       </c>
       <c r="E136" t="inlineStr">
@@ -5203,7 +5213,7 @@
           <t>LEONEL SILVA  ABAD</t>
         </is>
       </c>
-      <c r="D137" t="n">
+      <c r="D137" s="27" t="n">
         <v>66102813664</v>
       </c>
       <c r="E137" t="inlineStr">
@@ -5238,7 +5248,7 @@
           <t>CONSUELO GONZÁLEZ  DÍAZ</t>
         </is>
       </c>
-      <c r="D138" t="n">
+      <c r="D138" s="27" t="n">
         <v>65070101316</v>
       </c>
       <c r="E138" t="inlineStr">
@@ -5273,7 +5283,7 @@
           <t>OSMEL DÍAZ  CRUZ</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="27" t="n">
         <v>72061530046</v>
       </c>
       <c r="E139" t="inlineStr">
@@ -5308,7 +5318,7 @@
           <t>JULIO CÉSAR ESCAÑO  RODRÍGUEZ</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="27" t="n">
         <v>74071201582</v>
       </c>
       <c r="E140" t="inlineStr">
@@ -5343,7 +5353,7 @@
           <t>ALAIN MERCHÁN  OLIVA</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" s="27" t="n">
         <v>75042727021</v>
       </c>
       <c r="E141" t="inlineStr">
@@ -5378,7 +5388,7 @@
           <t>JORGE ALBERTO GOENAGA  MARTÍNEZ</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="27" t="n">
         <v>75091303206</v>
       </c>
       <c r="E142" t="inlineStr">
@@ -5413,7 +5423,7 @@
           <t>DENNIS ORTIZ  HERNÁNDEZ</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="27" t="n">
         <v>76010302983</v>
       </c>
       <c r="E143" t="inlineStr">
@@ -5448,7 +5458,7 @@
           <t>JULIO CESAR BERMUDEZ  LOPEZ</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="27" t="n">
         <v>78052910322</v>
       </c>
       <c r="E144" t="inlineStr">
@@ -5483,7 +5493,7 @@
           <t>RAYWER SIERRA  RODRÍGUEZ</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="27" t="n">
         <v>83051405903</v>
       </c>
       <c r="E145" t="inlineStr">
@@ -5518,7 +5528,7 @@
           <t>JONAH LÓPEZ  DÍAZ</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" s="27" t="n">
         <v>89103003841</v>
       </c>
       <c r="E146" t="inlineStr">
@@ -5553,7 +5563,7 @@
           <t>YADIRA FERRARI  SUÁREZ</t>
         </is>
       </c>
-      <c r="D147" t="n">
+      <c r="D147" s="27" t="n">
         <v>71123000994</v>
       </c>
       <c r="E147" t="inlineStr">
@@ -5588,7 +5598,7 @@
           <t>MAIKEL CÓRDOVA  GÓNGORA</t>
         </is>
       </c>
-      <c r="D148" t="n">
+      <c r="D148" s="27" t="n">
         <v>83102420907</v>
       </c>
       <c r="E148" t="inlineStr">
@@ -5623,7 +5633,7 @@
           <t>OSMEL IGNACIO FERNÁNDEZ  CAMPILLO</t>
         </is>
       </c>
-      <c r="D149" t="n">
+      <c r="D149" s="27" t="n">
         <v>83112329161</v>
       </c>
       <c r="E149" t="inlineStr">
@@ -5658,7 +5668,7 @@
           <t>LIVIO AVELINO LIMONTA JIMENEZ</t>
         </is>
       </c>
-      <c r="D150" t="n">
+      <c r="D150" s="27" t="n">
         <v>64101933586</v>
       </c>
       <c r="E150" t="inlineStr">
@@ -5693,7 +5703,7 @@
           <t>YAN LUIS MARTINEZ GONZALEZ</t>
         </is>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" s="27" t="n">
         <v>1061766707</v>
       </c>
       <c r="E151" t="inlineStr">
@@ -5728,7 +5738,7 @@
           <t>YAZMANY ANTONIO COTILLA HERNANDEZ</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" s="27" t="n">
         <v>89062721146</v>
       </c>
       <c r="E152" t="inlineStr">
@@ -5763,7 +5773,7 @@
           <t>MAXIMO MENDEZ MOLINA</t>
         </is>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" s="27" t="n">
         <v>71070826900</v>
       </c>
       <c r="E153" t="inlineStr">
@@ -5798,7 +5808,7 @@
           <t>ANAEVI MARTÍNEZ  RAMOS</t>
         </is>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" s="27" t="n">
         <v>76091009576</v>
       </c>
       <c r="E154" t="inlineStr">
@@ -5833,7 +5843,7 @@
           <t>KENIA AMINTA DELGADO  RODRÍGUEZ</t>
         </is>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" s="27" t="n">
         <v>76022001852</v>
       </c>
       <c r="E155" t="inlineStr">
@@ -5868,7 +5878,7 @@
           <t>ALAIN GARCÍA  JEREZ</t>
         </is>
       </c>
-      <c r="D156" t="n">
+      <c r="D156" s="27" t="n">
         <v>77011307082</v>
       </c>
       <c r="E156" t="inlineStr">
@@ -5903,7 +5913,7 @@
           <t>ARIANNA GUZMÁN RIVERO</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" s="27" t="n">
         <v>76011103251</v>
       </c>
       <c r="E157" t="inlineStr">
@@ -5938,7 +5948,7 @@
           <t>SANDOR RUBÉN  ROLDÁN</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="27" t="n">
         <v>75101926625</v>
       </c>
       <c r="E158" t="inlineStr">
@@ -5973,7 +5983,7 @@
           <t>YAMILKA DE LA CARIDAD SOSA  REMÓN</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="27" t="n">
         <v>73022234416</v>
       </c>
       <c r="E159" t="inlineStr">
@@ -6008,7 +6018,7 @@
           <t>LUIS ANGEL GARCÍA ALARCÓN</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="27" t="n">
         <v>61101312181</v>
       </c>
       <c r="E160" t="inlineStr">
@@ -6043,7 +6053,7 @@
           <t>VIRGINIA ISABEL SOTO  CASTRO</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="27" t="n">
         <v>66090527133</v>
       </c>
       <c r="E161" t="inlineStr">
@@ -6078,7 +6088,7 @@
           <t>MIGUEL ANGEL CÁRDENAS  FERNÁNDEZ</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="27" t="n">
         <v>72040801628</v>
       </c>
       <c r="E162" t="inlineStr">
@@ -6113,7 +6123,7 @@
           <t>ELIEZER SENÉN MEDINA  CARBONELL</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="27" t="n">
         <v>78081710301</v>
       </c>
       <c r="E163" t="inlineStr">
@@ -6148,7 +6158,7 @@
           <t>YOEL MONDUY  RODRÍGUEZ</t>
         </is>
       </c>
-      <c r="D164" t="n">
+      <c r="D164" s="27" t="n">
         <v>78011708481</v>
       </c>
       <c r="E164" t="inlineStr">
@@ -6183,7 +6193,7 @@
           <t>YUSNIEL MOJENA  CAMPILLO</t>
         </is>
       </c>
-      <c r="D165" t="n">
+      <c r="D165" s="27" t="n">
         <v>82022408624</v>
       </c>
       <c r="E165" t="inlineStr">
@@ -6218,7 +6228,7 @@
           <t>DANCÉS LEÓN  HERRERA</t>
         </is>
       </c>
-      <c r="D166" t="n">
+      <c r="D166" s="27" t="n">
         <v>77071731568</v>
       </c>
       <c r="E166" t="inlineStr">
@@ -6253,7 +6263,7 @@
           <t>JULIO ESTEBAN FIGUEREDO  DEL TORO</t>
         </is>
       </c>
-      <c r="D167" t="n">
+      <c r="D167" s="27" t="n">
         <v>70102218444</v>
       </c>
       <c r="E167" t="inlineStr">
@@ -6288,7 +6298,7 @@
           <t>BÁRBARO PABLO GONZÁLEZ  RODRÍGUEZ</t>
         </is>
       </c>
-      <c r="D168" t="n">
+      <c r="D168" s="27" t="n">
         <v>64101405101</v>
       </c>
       <c r="E168" t="inlineStr">
@@ -6323,7 +6333,7 @@
           <t>MARIA DEL  CARMEN CASTAÑER  AVERHOFF</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="27" t="n">
         <v>79122007759</v>
       </c>
       <c r="E169" t="inlineStr">
@@ -6358,7 +6368,7 @@
           <t>PEDRO BEC LÓPEZ</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" s="27" t="n">
         <v>58070607565</v>
       </c>
       <c r="E170" t="inlineStr">
@@ -6393,7 +6403,7 @@
           <t>ADOLFO DAMIÁN MORENO GONZÁLEZ</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="27" t="n">
         <v>87102002268</v>
       </c>
       <c r="E171" t="inlineStr">
@@ -6428,7 +6438,7 @@
           <t>FRANCISCO PALACIOS CABRERA</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="27" t="n">
         <v>70022129062</v>
       </c>
       <c r="E172" t="inlineStr">
@@ -6463,7 +6473,7 @@
           <t>LUIS MANUEL PUENTES  CID</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" s="27" t="n">
         <v>75041800428</v>
       </c>
       <c r="E173" t="inlineStr">
@@ -6498,7 +6508,7 @@
           <t>AVELARDO IZQUIERDO  REYES</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" s="27" t="n">
         <v>65050910745</v>
       </c>
       <c r="E174" t="inlineStr">
@@ -6533,7 +6543,7 @@
           <t>YUDITH REMIS  RODRÍGUEZ</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" s="27" t="n">
         <v>76102902291</v>
       </c>
       <c r="E175" t="inlineStr">
@@ -6568,7 +6578,7 @@
           <t>ALEXIS SUÁREZ  CAPOTE</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="27" t="n">
         <v>65032131369</v>
       </c>
       <c r="E176" t="inlineStr">
@@ -6603,7 +6613,7 @@
           <t>ENID CRESPO  TORRES</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="27" t="n">
         <v>76070809961</v>
       </c>
       <c r="E177" t="inlineStr">
@@ -6638,7 +6648,7 @@
           <t>OSVALDO MORENO  HERNÁNDEZ</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="27" t="n">
         <v>66121126709</v>
       </c>
       <c r="E178" t="inlineStr">
@@ -6673,7 +6683,7 @@
           <t>DARIEL ORTIZ VALDEZ</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="27" t="n">
         <v>91030729164</v>
       </c>
       <c r="E179" t="inlineStr">
@@ -6708,7 +6718,7 @@
           <t>JULIO GERMÁN MORA NEGRÍN</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="27" t="n">
         <v>61102311421</v>
       </c>
       <c r="E180" t="inlineStr">
@@ -6743,7 +6753,7 @@
           <t>PEDRO EMILIO CARNOT  PEREIRA</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="27" t="n">
         <v>60052814445</v>
       </c>
       <c r="E181" t="inlineStr">
@@ -6778,7 +6788,7 @@
           <t>YOASMIN CALDERON  PÉREZ</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="27" t="n">
         <v>76111901935</v>
       </c>
       <c r="E182" t="inlineStr">
@@ -6813,7 +6823,7 @@
           <t>ISEL ENAMORADO ODUARDO</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="27" t="n">
         <v>72120822621</v>
       </c>
       <c r="E183" t="inlineStr">
@@ -6848,7 +6858,7 @@
           <t>ALFREDO LOPEZ ALEMAN</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="27" t="n">
         <v>91071629640</v>
       </c>
       <c r="E184" t="inlineStr">
@@ -6883,7 +6893,7 @@
           <t>MANUEL RAÚL GÓMEZ  FERRO</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="27" t="n">
         <v>87031710740</v>
       </c>
       <c r="E185" t="inlineStr">
@@ -6918,7 +6928,7 @@
           <t>LOYSLI REINALDO CORDERO GÓMEZ</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="27" t="n">
         <v>83101629508</v>
       </c>
       <c r="E186" t="inlineStr">
@@ -6953,7 +6963,7 @@
           <t>JOAQUÍN FERNÁNDEZ  RONDÓN</t>
         </is>
       </c>
-      <c r="D187" t="n">
+      <c r="D187" s="27" t="n">
         <v>89090512026</v>
       </c>
       <c r="E187" t="inlineStr">
@@ -6988,7 +6998,7 @@
           <t>YUDIETH PALENZUELA  YANES</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" s="27" t="n">
         <v>77071308519</v>
       </c>
       <c r="E188" t="inlineStr">
@@ -7023,7 +7033,7 @@
           <t>SHEYLA NORES  GONZÁLEZ</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="27" t="n">
         <v>77102408513</v>
       </c>
       <c r="E189" t="inlineStr">
@@ -7058,7 +7068,7 @@
           <t>JAVIEL PITA  CABALLERO</t>
         </is>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" s="27" t="n">
         <v>74122105065</v>
       </c>
       <c r="E190" t="inlineStr">
@@ -7093,7 +7103,7 @@
           <t>MICHAEL DE ARMAS  RODRÍGUEZ</t>
         </is>
       </c>
-      <c r="D191" t="n">
+      <c r="D191" s="27" t="n">
         <v>81082809140</v>
       </c>
       <c r="E191" t="inlineStr">
@@ -7128,7 +7138,7 @@
           <t>ARTURO DÁVALOS  MOROS</t>
         </is>
       </c>
-      <c r="D192" t="n">
+      <c r="D192" s="27" t="n">
         <v>85102309248</v>
       </c>
       <c r="E192" t="inlineStr">
@@ -7163,7 +7173,7 @@
           <t>LUIS ANTONIO NARANJO  QUINTANA</t>
         </is>
       </c>
-      <c r="D193" t="n">
+      <c r="D193" s="27" t="n">
         <v>66020214249</v>
       </c>
       <c r="E193" t="inlineStr">
@@ -7198,7 +7208,7 @@
           <t>YOAN  HERNÁNDEZ  MENDEZ</t>
         </is>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" s="27" t="n">
         <v>81121608207</v>
       </c>
       <c r="E194" t="inlineStr">
@@ -7233,7 +7243,7 @@
           <t>LIUSKA ORTEGA  RODRIGUEZ</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" s="27" t="n">
         <v>79051608214</v>
       </c>
       <c r="E195" t="inlineStr">
@@ -7268,7 +7278,7 @@
           <t>JOSE MIGUEL NAVARRO CRUZ</t>
         </is>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" s="27" t="n">
         <v>67102131388</v>
       </c>
       <c r="E196" t="inlineStr">
@@ -7303,7 +7313,7 @@
           <t>DIOSDADO VIZCAINO  RODRÍGUEZ</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="27" t="n">
         <v>65110800422</v>
       </c>
       <c r="E197" t="inlineStr">
@@ -7338,7 +7348,7 @@
           <t>MARIANELA MANCHA TARAJANO</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="27" t="n">
         <v>75082505833</v>
       </c>
       <c r="E198" t="inlineStr">
@@ -7373,7 +7383,7 @@
           <t>MAILYN LORENZO  RODRÍGUEZ</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="27" t="n">
         <v>77021209074</v>
       </c>
       <c r="E199" t="inlineStr">
@@ -7408,7 +7418,7 @@
           <t>JOSE FRANCISCO DUQUESNE BAEZ</t>
         </is>
       </c>
-      <c r="D200" t="n">
+      <c r="D200" s="27" t="n">
         <v>58051100229</v>
       </c>
       <c r="E200" t="inlineStr">
@@ -7443,7 +7453,7 @@
           <t>ALBERTO PÉREZ  FLORES</t>
         </is>
       </c>
-      <c r="D201" t="n">
+      <c r="D201" s="27" t="n">
         <v>64010720143</v>
       </c>
       <c r="E201" t="inlineStr">
@@ -7478,7 +7488,7 @@
           <t>CARLOS ENRIQUE VELASCO  BLANCO</t>
         </is>
       </c>
-      <c r="D202" t="n">
+      <c r="D202" s="27" t="n">
         <v>86081612529</v>
       </c>
       <c r="E202" t="inlineStr">
@@ -7513,7 +7523,7 @@
           <t>PABLO GARCÍA MARTÍNEZ</t>
         </is>
       </c>
-      <c r="D203" t="n">
+      <c r="D203" s="27" t="n">
         <v>90071532404</v>
       </c>
       <c r="E203" t="inlineStr">
@@ -7548,7 +7558,7 @@
           <t>FAUSTINO RODRIGUEZ RODRIGUEZ</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="27" t="n">
         <v>62031621487</v>
       </c>
       <c r="E204" t="inlineStr">
@@ -7583,7 +7593,7 @@
           <t>RAUL  RODRIGUEZ SANCHEZ</t>
         </is>
       </c>
-      <c r="D205" t="n">
+      <c r="D205" s="27" t="n">
         <v>72010305503</v>
       </c>
       <c r="E205" t="inlineStr">
@@ -7618,7 +7628,7 @@
           <t>FRANK NIEBLA BERMUDEZ</t>
         </is>
       </c>
-      <c r="D206" t="n">
+      <c r="D206" s="27" t="n">
         <v>70060305903</v>
       </c>
       <c r="E206" t="inlineStr">
@@ -7653,7 +7663,7 @@
           <t>VLADIMIR  MANSO GONZÁLEZ</t>
         </is>
       </c>
-      <c r="D207" t="n">
+      <c r="D207" s="27" t="n">
         <v>74021806780</v>
       </c>
       <c r="E207" t="inlineStr">
@@ -7688,7 +7698,7 @@
           <t>LUIS MIGUEL MOYA PEREZ</t>
         </is>
       </c>
-      <c r="D208" t="n">
+      <c r="D208" s="27" t="n">
         <v>91042235325</v>
       </c>
       <c r="E208" t="inlineStr">
@@ -7723,7 +7733,7 @@
           <t>YOSVANY ECHEVARRÍA TURIÑO</t>
         </is>
       </c>
-      <c r="D209" t="n">
+      <c r="D209" s="27" t="n">
         <v>77060911684</v>
       </c>
       <c r="E209" t="inlineStr">
@@ -7758,7 +7768,7 @@
           <t>ANA MARIA HERNÁNDEZ  GONZÁLEZ</t>
         </is>
       </c>
-      <c r="D210" t="n">
+      <c r="D210" s="27" t="n">
         <v>67012521893</v>
       </c>
       <c r="E210" t="inlineStr">
@@ -7793,7 +7803,7 @@
           <t>EVIS ACUÑA BRAVO</t>
         </is>
       </c>
-      <c r="D211" t="n">
+      <c r="D211" s="27" t="n">
         <v>67030304540</v>
       </c>
       <c r="E211" t="inlineStr">
@@ -7828,7 +7838,7 @@
           <t>FÉLIX MEDINA  SUÁREZ</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="27" t="n">
         <v>67072816143</v>
       </c>
       <c r="E212" t="inlineStr">
@@ -7863,7 +7873,7 @@
           <t>EDEL JIMÉNEZ  ALBA</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="27" t="n">
         <v>69101122122</v>
       </c>
       <c r="E213" t="inlineStr">
@@ -7898,7 +7908,7 @@
           <t>MIRTA CABRERA GINORIA</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="27" t="n">
         <v>71040502217</v>
       </c>
       <c r="E214" t="inlineStr">
@@ -7933,7 +7943,7 @@
           <t>LUIS ORLANDO MARTIN  MAYONADA</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="27" t="n">
         <v>70051702588</v>
       </c>
       <c r="E215" t="inlineStr">
@@ -7968,7 +7978,7 @@
           <t>LUIS ANGEL YERA PEREZ</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="27" t="n">
         <v>2011872060</v>
       </c>
       <c r="E216" t="inlineStr">
@@ -8003,7 +8013,7 @@
           <t>MAIKEL YUDIANNY  JIMÉNEZ  PÉREZ</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="27" t="n">
         <v>91100836209</v>
       </c>
       <c r="E217" t="inlineStr">
@@ -8038,7 +8048,7 @@
           <t>ALFONSO COLINA  HURTADO</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="27" t="n">
         <v>60110319785</v>
       </c>
       <c r="E218" t="inlineStr">
@@ -8073,7 +8083,7 @@
           <t>JESUS RAFAEL  DELGADO GESSA</t>
         </is>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" s="27" t="n">
         <v>70021206560</v>
       </c>
       <c r="E219" t="inlineStr">
@@ -8108,7 +8118,7 @@
           <t>ROLANDO GÓMEZ  SERRANO</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="27" t="n">
         <v>73112204169</v>
       </c>
       <c r="E220" t="inlineStr">
@@ -8143,7 +8153,7 @@
           <t>ADEL  FERNANDEZ GONZALEZ</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="27" t="n">
         <v>74040127747</v>
       </c>
       <c r="E221" t="inlineStr">
@@ -8178,7 +8188,7 @@
           <t>ALYS GARCÍA  HERNÁNDEZ</t>
         </is>
       </c>
-      <c r="D222" t="n">
+      <c r="D222" s="27" t="n">
         <v>78090919514</v>
       </c>
       <c r="E222" t="inlineStr">
@@ -8213,7 +8223,7 @@
           <t>MARTINIANO HERNÁNDEZ  BARCELÓ</t>
         </is>
       </c>
-      <c r="D223" t="n">
+      <c r="D223" s="27" t="n">
         <v>68100305647</v>
       </c>
       <c r="E223" t="inlineStr">
@@ -8248,7 +8258,7 @@
           <t>INELDO IDEL ESPINOSA GARCIA</t>
         </is>
       </c>
-      <c r="D224" t="n">
+      <c r="D224" s="27" t="n">
         <v>66051608502</v>
       </c>
       <c r="E224" t="inlineStr">
@@ -8283,7 +8293,7 @@
           <t>GEORLANDY  VENEGA SANTOS</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="27" t="n">
         <v>75102109967</v>
       </c>
       <c r="E225" t="inlineStr">
@@ -8318,7 +8328,7 @@
           <t>ABUNDIO MOYA  PÉREZ</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="27" t="n">
         <v>73090803027</v>
       </c>
       <c r="E226" t="inlineStr">
@@ -8353,7 +8363,7 @@
           <t xml:space="preserve">JOSE CARLOS  SANCHEZ  CID </t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" s="27" t="n">
         <v>92080838904</v>
       </c>
       <c r="E227" t="inlineStr">
@@ -8388,7 +8398,7 @@
           <t>JUAN CARLOS ABDALA  GARCÍA</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" s="27" t="n">
         <v>81122102026</v>
       </c>
       <c r="E228" t="inlineStr">
@@ -8423,7 +8433,7 @@
           <t>EMILIO  VIÑALES  FIGUEROA</t>
         </is>
       </c>
-      <c r="D229" t="n">
+      <c r="D229" s="27" t="n">
         <v>64112530228</v>
       </c>
       <c r="E229" t="inlineStr">
@@ -8458,7 +8468,7 @@
           <t>ALEXIS ELIA CASTILLO  JIMÉNEZ</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="27" t="n">
         <v>66100605447</v>
       </c>
       <c r="E230" t="inlineStr">
@@ -8493,7 +8503,7 @@
           <t>DUANY RICHARD VIGO MARRERO</t>
         </is>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" s="27" t="n">
         <v>84120218064</v>
       </c>
       <c r="E231" t="inlineStr">
@@ -8528,7 +8538,7 @@
           <t>HECTOR EUTIQUIO MOYARES  RAMOS</t>
         </is>
       </c>
-      <c r="D232" t="n">
+      <c r="D232" s="27" t="n">
         <v>65120808422</v>
       </c>
       <c r="E232" t="inlineStr">
@@ -8563,7 +8573,7 @@
           <t>ADRIÁN RODRÍGUEZ BARRERAS</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="27" t="n">
         <v>86030318025</v>
       </c>
       <c r="E233" t="inlineStr">
@@ -8598,7 +8608,7 @@
           <t>ERIBERTO RAÚL VALDÉS  FONTELA</t>
         </is>
       </c>
-      <c r="D234" t="n">
+      <c r="D234" s="27" t="n">
         <v>72092607622</v>
       </c>
       <c r="E234" t="inlineStr">
@@ -8633,7 +8643,7 @@
           <t>PATRICIO HERNÁNDEZ  FÁBREGAS</t>
         </is>
       </c>
-      <c r="D235" t="n">
+      <c r="D235" s="27" t="n">
         <v>60042007981</v>
       </c>
       <c r="E235" t="inlineStr">
@@ -8668,7 +8678,7 @@
           <t>FERNANDO RODRÍGUEZ  CRUZ</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="27" t="n">
         <v>61022414468</v>
       </c>
       <c r="E236" t="inlineStr">
@@ -8703,7 +8713,7 @@
           <t>RAMÓN SALINA  RICARDO</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="27" t="n">
         <v>70100309809</v>
       </c>
       <c r="E237" t="inlineStr">
@@ -8738,7 +8748,7 @@
           <t>ROBERQUI HECHAVARRIA ALBA</t>
         </is>
       </c>
-      <c r="D238" t="n">
+      <c r="D238" s="27" t="n">
         <v>79121822300</v>
       </c>
       <c r="E238" t="inlineStr">
@@ -8773,7 +8783,7 @@
           <t>SERGIO YANSEL SARMIENTO CRUZ</t>
         </is>
       </c>
-      <c r="D239" t="n">
+      <c r="D239" s="27" t="n">
         <v>83040318907</v>
       </c>
       <c r="E239" t="inlineStr">
@@ -8808,7 +8818,7 @@
           <t>OSMANIS FERNANDEZ ANZARDO</t>
         </is>
       </c>
-      <c r="D240" t="n">
+      <c r="D240" s="27" t="n">
         <v>72012608486</v>
       </c>
       <c r="E240" t="inlineStr">
@@ -8843,7 +8853,7 @@
           <t>ALEXIS RODRÍGUEZ CARRALERO</t>
         </is>
       </c>
-      <c r="D241" t="n">
+      <c r="D241" s="27" t="n">
         <v>69032323108</v>
       </c>
       <c r="E241" t="inlineStr">
@@ -8878,7 +8888,7 @@
           <t>JORGE LUIS SAAVEDRA  GARCÍA</t>
         </is>
       </c>
-      <c r="D242" t="n">
+      <c r="D242" s="27" t="n">
         <v>85052422029</v>
       </c>
       <c r="E242" t="inlineStr">
@@ -8913,7 +8923,7 @@
           <t>NESTOR ERITH HERNÁNDEZ  MENA</t>
         </is>
       </c>
-      <c r="D243" t="n">
+      <c r="D243" s="27" t="n">
         <v>71122510580</v>
       </c>
       <c r="E243" t="inlineStr">
@@ -8948,7 +8958,7 @@
           <t>LUIS ROBERTO ALMAGUER  SOLIS</t>
         </is>
       </c>
-      <c r="D244" t="n">
+      <c r="D244" s="27" t="n">
         <v>70092908981</v>
       </c>
       <c r="E244" t="inlineStr">
@@ -8983,7 +8993,7 @@
           <t>LIDISMIR DOROTEA VEGA  ARENA</t>
         </is>
       </c>
-      <c r="D245" t="n">
+      <c r="D245" s="27" t="n">
         <v>65022214076</v>
       </c>
       <c r="E245" t="inlineStr">
@@ -9018,7 +9028,7 @@
           <t>PEDRO RAFAEL ALDANA ZAPATA</t>
         </is>
       </c>
-      <c r="D246" t="n">
+      <c r="D246" s="27" t="n">
         <v>70031422906</v>
       </c>
       <c r="E246" t="inlineStr">
@@ -9053,7 +9063,7 @@
           <t>RACIEL PEREDA AGUILERA</t>
         </is>
       </c>
-      <c r="D247" t="n">
+      <c r="D247" s="27" t="n">
         <v>91013042305</v>
       </c>
       <c r="E247" t="inlineStr">
@@ -9088,7 +9098,7 @@
           <t>ANNIER  CHAVEZ  LECTO</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="27" t="n">
         <v>93011820501</v>
       </c>
       <c r="E248" t="inlineStr">
@@ -9123,7 +9133,7 @@
           <t>YOSVANY PRIETO  MERIÑO</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" s="27" t="n">
         <v>80072419106</v>
       </c>
       <c r="E249" t="inlineStr">
@@ -9158,7 +9168,7 @@
           <t>CARLOS COBIRLLA AGUILERA</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="27" t="n">
         <v>90111741222</v>
       </c>
       <c r="E250" t="inlineStr">
@@ -9193,7 +9203,7 @@
           <t>ILIAT REVILLA  BARRIENTOS</t>
         </is>
       </c>
-      <c r="D251" t="n">
+      <c r="D251" s="27" t="n">
         <v>81052023586</v>
       </c>
       <c r="E251" t="inlineStr">
@@ -9228,7 +9238,7 @@
           <t>DIUNEIKY GIRÓN  NOA</t>
         </is>
       </c>
-      <c r="D252" t="n">
+      <c r="D252" s="27" t="n">
         <v>85071026793</v>
       </c>
       <c r="E252" t="inlineStr">
@@ -9263,7 +9273,7 @@
           <t>GRISEL ORTEGA  ALVAREZ</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" s="27" t="n">
         <v>73092710173</v>
       </c>
       <c r="E253" t="inlineStr">
@@ -9298,7 +9308,7 @@
           <t>LEYANNE MEDINA  SANABIA</t>
         </is>
       </c>
-      <c r="D254" t="n">
+      <c r="D254" s="27" t="n">
         <v>80121023416</v>
       </c>
       <c r="E254" t="inlineStr">
@@ -9333,7 +9343,7 @@
           <t>YOELKIS VIAMONTE  MENDOZA</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D255" s="27" t="n">
         <v>68092207224</v>
       </c>
       <c r="E255" t="inlineStr">
@@ -9368,7 +9378,7 @@
           <t>ARIAN HECHAVARRIA CASTILLO</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="27" t="n">
         <v>81031923462</v>
       </c>
       <c r="E256" t="inlineStr">
@@ -9403,7 +9413,7 @@
           <t>ONIS GORGUET NUÑEZ</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" s="27" t="n">
         <v>71041211283</v>
       </c>
       <c r="E257" t="inlineStr">
@@ -9438,7 +9448,7 @@
           <t>ALFREDO RODRÍGUEZ  LEÓN</t>
         </is>
       </c>
-      <c r="D258" t="n">
+      <c r="D258" s="27" t="n">
         <v>66010807008</v>
       </c>
       <c r="E258" t="inlineStr">
@@ -9473,7 +9483,7 @@
           <t>JOSE ALAIN MASSO  ALMENARES</t>
         </is>
       </c>
-      <c r="D259" t="n">
+      <c r="D259" s="27" t="n">
         <v>74010610566</v>
       </c>
       <c r="E259" t="inlineStr">
@@ -9508,7 +9518,7 @@
           <t>ARNULFO EDGAR LUNA  MENDOZA</t>
         </is>
       </c>
-      <c r="D260" t="n">
+      <c r="D260" s="27" t="n">
         <v>75020713705</v>
       </c>
       <c r="E260" t="inlineStr">
@@ -9543,7 +9553,7 @@
           <t>ALEXANDER MARTÍNEZ  VIDAL</t>
         </is>
       </c>
-      <c r="D261" t="n">
+      <c r="D261" s="27" t="n">
         <v>74100311048</v>
       </c>
       <c r="E261" t="inlineStr">
@@ -9578,7 +9588,7 @@
           <t>ALFREDO IGARZA  BARRIEL</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" s="27" t="n">
         <v>68100113668</v>
       </c>
       <c r="E262" t="inlineStr">
@@ -9613,7 +9623,7 @@
           <t>ROBERTO SUÁREZ  ANTÚNEZ</t>
         </is>
       </c>
-      <c r="D263" t="n">
+      <c r="D263" s="27" t="n">
         <v>71061529583</v>
       </c>
       <c r="E263" t="inlineStr">
@@ -9648,7 +9658,7 @@
           <t>HECTOR DANIEL MENDOZA VAZQUEZ</t>
         </is>
       </c>
-      <c r="D264" t="n">
+      <c r="D264" s="27" t="n">
         <v>84020107709</v>
       </c>
       <c r="E264" t="inlineStr">
@@ -9683,7 +9693,7 @@
           <t>FRANCISCO JIMÉNEZ  FÚ</t>
         </is>
       </c>
-      <c r="D265" t="n">
+      <c r="D265" s="27" t="n">
         <v>50061609841</v>
       </c>
       <c r="E265" t="inlineStr">
@@ -9718,7 +9728,7 @@
           <t xml:space="preserve">DAYLON  QUESADA  HECHAVARRÍA </t>
         </is>
       </c>
-      <c r="D266" t="n">
+      <c r="D266" s="27" t="n">
         <v>92110530422</v>
       </c>
       <c r="E266" t="inlineStr">
@@ -9753,7 +9763,7 @@
           <t>ROLANDO  GONZALEZ PADRO</t>
         </is>
       </c>
-      <c r="D267" t="n">
+      <c r="D267" s="27" t="n">
         <v>68040704042</v>
       </c>
       <c r="E267" t="inlineStr">
@@ -9788,7 +9798,7 @@
           <t>GERARDO  FERNÁNDEZ BORROTO</t>
         </is>
       </c>
-      <c r="D268" t="n">
+      <c r="D268" s="27" t="n">
         <v>63081402387</v>
       </c>
       <c r="E268" t="inlineStr">
@@ -9823,7 +9833,7 @@
           <t>EDUARDO LEYVA SIANKA</t>
         </is>
       </c>
-      <c r="D269" t="n">
+      <c r="D269" s="27" t="n">
         <v>65101303162</v>
       </c>
       <c r="E269" t="inlineStr">
@@ -9858,7 +9868,7 @@
           <t>ANDY  FERNANDEZ RAMON</t>
         </is>
       </c>
-      <c r="D270" t="n">
+      <c r="D270" s="27" t="n">
         <v>97080908102</v>
       </c>
       <c r="E270" t="inlineStr">
